--- a/storage/names.xlsx
+++ b/storage/names.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">مجتمع</t>
   </si>
@@ -68,6 +68,39 @@
   </si>
   <si>
     <t xml:space="preserve">بلوار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طبقه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بن بست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بنبست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجموعه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساختمان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واحد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقاطع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شمال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنوب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غرب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شرق</t>
   </si>
 </sst>
 </file>
@@ -178,10 +211,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -269,6 +302,61 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
